--- a/Installed_power.xlsx
+++ b/Installed_power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4C961-2A6D-4999-A792-1E1F3081D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9B4B9-819E-49B0-AD80-206F44FE00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8E420B-8548-4125-9C7D-58726EC4ED48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8E420B-8548-4125-9C7D-58726EC4ED48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Installed_power.xlsx
+++ b/Installed_power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9B4B9-819E-49B0-AD80-206F44FE00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3519B-8287-47D3-8AA6-5895E85637F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8E420B-8548-4125-9C7D-58726EC4ED48}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Nuclear</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Biomass</t>
   </si>
 </sst>
 </file>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A997-CBB7-4417-84BD-C544A8D43FBE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -427,8 +433,14 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Sheet1!A2*1000</f>
         <v>48320</v>
@@ -449,8 +461,14 @@
         <f>Sheet1!E2*1000</f>
         <v>25700</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>5340</v>
+      </c>
+      <c r="G2">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>Sheet1!A3*1000</f>
         <v>49730</v>
@@ -471,8 +489,14 @@
         <f>Sheet1!E3*1000</f>
         <v>26820</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>5407</v>
+      </c>
+      <c r="G3">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Sheet1!A4*1000</f>
         <v>45570</v>
@@ -493,8 +517,14 @@
         <f>Sheet1!E4*1000</f>
         <v>28580</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5308</v>
+      </c>
+      <c r="G4">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>Sheet1!A5*1000</f>
         <v>46200</v>
@@ -515,8 +545,14 @@
         <f>Sheet1!E5*1000</f>
         <v>30560</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5282</v>
+      </c>
+      <c r="G5">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Sheet1!A6*1000</f>
         <v>46920</v>
@@ -537,8 +573,14 @@
         <f>Sheet1!E6*1000</f>
         <v>32970</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5438</v>
+      </c>
+      <c r="G6">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Sheet1!A7*1000</f>
         <v>47030</v>
@@ -559,8 +601,14 @@
         <f>Sheet1!E7*1000</f>
         <v>37620</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5575</v>
+      </c>
+      <c r="G7">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Sheet1!A8*1000</f>
         <v>50070</v>
@@ -581,8 +629,14 @@
         <f>Sheet1!E8*1000</f>
         <v>41300</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>5475</v>
+      </c>
+      <c r="G8">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>Sheet1!A9*1000</f>
         <v>48710</v>
@@ -603,8 +657,14 @@
         <f>Sheet1!E9*1000</f>
         <v>45280</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>5493</v>
+      </c>
+      <c r="G9">
+        <v>7259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>Sheet1!A10*1000</f>
         <v>44900</v>
@@ -625,8 +685,14 @@
         <f>Sheet1!E10*1000</f>
         <v>50170</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>4782</v>
+      </c>
+      <c r="G10">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Sheet1!A11*1000</f>
         <v>44720</v>
@@ -647,8 +713,14 @@
         <f>Sheet1!E11*1000</f>
         <v>52330</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>4837</v>
+      </c>
+      <c r="G11">
+        <v>7993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Sheet1!A12*1000</f>
         <v>43570</v>
@@ -669,8 +741,14 @@
         <f>Sheet1!E12*1000</f>
         <v>53190</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>4849</v>
+      </c>
+      <c r="G12">
+        <v>8337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Sheet1!A13*1000</f>
         <v>44600</v>
@@ -691,8 +769,14 @@
         <f>Sheet1!E13*1000</f>
         <v>54300</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>4957</v>
+      </c>
+      <c r="G13">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Sheet1!A14*1000</f>
         <v>38030</v>
@@ -712,6 +796,12 @@
       <c r="E14">
         <f>Sheet1!E14*1000</f>
         <v>55930</v>
+      </c>
+      <c r="F14">
+        <v>6066</v>
+      </c>
+      <c r="G14">
+        <v>8853</v>
       </c>
     </row>
   </sheetData>
